--- a/input/Logarithmic1.xlsx
+++ b/input/Logarithmic1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6075162696266043</v>
+        <v>0.3325634519964858</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.628934817279525</v>
+        <v>-1.577164117715349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143219095387788</v>
+        <v>0.1583661481491326</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>3.105263157894737</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6996727715761084</v>
+        <v>0.5362673463982073</v>
       </c>
       <c r="C3" t="n">
-        <v>2.864230286304686</v>
+        <v>2.692348254556006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.152354268924543</v>
+        <v>0.1009111604271066</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>5.710526315789473</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5866676072502113</v>
+        <v>0.4863417279209184</v>
       </c>
       <c r="C4" t="n">
-        <v>4.315391161789671</v>
+        <v>4.190925488841986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1925748282581027</v>
+        <v>0.1137652762049108</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>8.315789473684211</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3266067882509627</v>
+        <v>0.6631075989225439</v>
       </c>
       <c r="C5" t="n">
-        <v>5.216868972606011</v>
+        <v>5.443480049424021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1576047851052493</v>
+        <v>0.1931707690100237</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>10.92105263157895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6318447971423287</v>
+        <v>0.6775057263139524</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939586480846789</v>
+        <v>6.112545600687255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1750873578906825</v>
+        <v>0.2101936556005051</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>13.52631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>0.483225991226755</v>
+        <v>0.443581991011115</v>
       </c>
       <c r="C7" t="n">
-        <v>6.600163169909568</v>
+        <v>6.436510515104551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1687919934573108</v>
+        <v>0.08830878254179103</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>16.13157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4090531268755799</v>
+        <v>0.6745182959672391</v>
       </c>
       <c r="C8" t="n">
-        <v>7.003865789989433</v>
+        <v>6.861214481091074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0949131891213129</v>
+        <v>0.1942603081987745</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>18.73684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3761456179847981</v>
+        <v>0.5690983528995748</v>
       </c>
       <c r="C9" t="n">
-        <v>7.230110815902728</v>
+        <v>7.508962356659595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1790615858654648</v>
+        <v>0.1950218386347838</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>21.34210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6047372232254987</v>
+        <v>0.5805728319597545</v>
       </c>
       <c r="C10" t="n">
-        <v>7.650936450877876</v>
+        <v>7.541483340287529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1380915291318883</v>
+        <v>0.1864556023826213</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>23.94736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>0.409194602824618</v>
+        <v>0.5013123676011131</v>
       </c>
       <c r="C11" t="n">
-        <v>7.753987211067447</v>
+        <v>8.078763114201099</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1244224561163625</v>
+        <v>0.1046331517116006</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>26.55263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3185153593266684</v>
+        <v>0.5538508295498324</v>
       </c>
       <c r="C12" t="n">
-        <v>8.252642714276329</v>
+        <v>8.136658617034685</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2174334671586232</v>
+        <v>0.09199700183889786</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>29.1578947368421</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4504457107359761</v>
+        <v>0.5443277979225418</v>
       </c>
       <c r="C13" t="n">
-        <v>8.330051506562778</v>
+        <v>8.4438213234104</v>
       </c>
       <c r="D13" t="n">
-        <v>0.124698229272579</v>
+        <v>0.1653917755315666</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>31.76315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>0.700955440860587</v>
+        <v>0.4734461023878559</v>
       </c>
       <c r="C14" t="n">
-        <v>8.655161501461919</v>
+        <v>8.517659546701067</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1798652124416639</v>
+        <v>0.2215697407280473</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>34.36842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3884634694240603</v>
+        <v>0.7319111827345764</v>
       </c>
       <c r="C15" t="n">
-        <v>8.822744849470727</v>
+        <v>8.886243262158843</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1984995563634222</v>
+        <v>0.2105858936212124</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>36.97368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3191926071907939</v>
+        <v>0.2719028202929124</v>
       </c>
       <c r="C16" t="n">
-        <v>8.964988904311074</v>
+        <v>9.086684146926034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1266598332132103</v>
+        <v>0.1643884560026617</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>39.57894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0.491113513409954</v>
+        <v>0.6553337074312454</v>
       </c>
       <c r="C17" t="n">
-        <v>9.23222903954588</v>
+        <v>9.144604967488755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2010272156423204</v>
+        <v>0.1538476224249944</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>42.18421052631579</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4756932720489356</v>
+        <v>0.3744091181736931</v>
       </c>
       <c r="C18" t="n">
-        <v>9.189578341847197</v>
+        <v>9.390416267008765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1107924721470205</v>
+        <v>0.1865534655677196</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>44.78947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3311721240644397</v>
+        <v>0.6905295855619613</v>
       </c>
       <c r="C19" t="n">
-        <v>9.414373965990427</v>
+        <v>9.472828200603963</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1213204965091118</v>
+        <v>0.1665361906093438</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>47.39473684210526</v>
       </c>
       <c r="B20" t="n">
-        <v>0.284679395801814</v>
+        <v>0.2777390065955421</v>
       </c>
       <c r="C20" t="n">
-        <v>9.662989578747766</v>
+        <v>9.707266478039442</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1787170312619108</v>
+        <v>0.1690429448834274</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>50</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6672917129084492</v>
+        <v>0.5784279659116576</v>
       </c>
       <c r="C21" t="n">
-        <v>9.872741511747845</v>
+        <v>9.565568645208231</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1228681840704401</v>
+        <v>0.2050538393862699</v>
       </c>
     </row>
   </sheetData>
